--- a/barcode_list.xlsx
+++ b/barcode_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongkyokim/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PLAYGROUND\hkdevstudio\barcode_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF00A84-054E-9E4D-815E-17E6A803B84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD8B07-9BBD-4DB2-9F93-0F11510AFCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2200" windowWidth="28300" windowHeight="17440" xr2:uid="{05870A59-0FD5-5140-85E0-EC9F9D24B94C}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{05870A59-0FD5-5140-85E0-EC9F9D24B94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,12 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,7 +82,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,260 +399,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0BC3EC-FADA-AE4E-A5FB-53C56C09C159}">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>1000004307968</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <v>1000004307969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>1000004307970</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1">
-        <v>1000004307971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>1000004307972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1">
-        <v>1000004307973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1">
-        <v>1000004307974</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1">
-        <v>1000004307975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1">
-        <v>1000004307976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1">
-        <v>1000004307977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>1000004307978</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1">
-        <v>1000004307979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1">
-        <v>1000004307980</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1">
-        <v>1000004307981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1">
-        <v>1000004307982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1">
-        <v>1000004307983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>1000004307984</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
-        <v>1000004307985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
-        <v>1000004307986</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1">
-        <v>1000004307987</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1">
-        <v>1000004307988</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1">
-        <v>1000004307989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1">
-        <v>1000004307990</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1">
-        <v>1000004307991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1">
-        <v>1000004307992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1">
-        <v>1000004307993</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1">
-        <v>1000004307994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1">
-        <v>1000004307995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1">
-        <v>1000004307996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1">
-        <v>1000004307997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1">
-        <v>1000004307998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1">
-        <v>1000004307999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1">
-        <v>1000004308000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1">
-        <v>1000004308001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1">
-        <v>1000004308002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1">
-        <v>1000004308003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1">
-        <v>1000004308004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1">
-        <v>1000004308005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1">
-        <v>1000004308006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1">
-        <v>1000004308007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1">
-        <v>1000004308008</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1">
-        <v>1000004308009</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1">
-        <v>1000004308010</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1">
-        <v>1000004308011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1">
-        <v>1000004308012</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1">
-        <v>1000004308013</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1">
-        <v>1000004308014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1">
-        <v>1000004308015</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1">
-        <v>1000004308016</v>
       </c>
     </row>
   </sheetData>

--- a/barcode_list.xlsx
+++ b/barcode_list.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PLAYGROUND\hkdevstudio\barcode_gen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\범양\Barcode Generator-진짜 최종3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD8B07-9BBD-4DB2-9F93-0F11510AFCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{05870A59-0FD5-5140-85E0-EC9F9D24B94C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,11 +34,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -55,6 +55,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -64,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,22 +100,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 10" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,22 +455,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0BC3EC-FADA-AE4E-A5FB-53C56C09C159}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
+      <selection sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
-        <v>1000004307968</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>1000004287628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1000004287635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1000004287642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1000004287659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1000004287666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1000004287673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1000004287567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1000004287574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1000004287581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1000004287598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>1000004287604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>1000004287611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>1000004287505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>1000004287512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1000004287529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>1000004287536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1000004287543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>1000004287550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1000004307593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1000004307609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1000004307616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1000004307623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>1000004307630</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>1000004307647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>1000004307654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1000004307661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1000004307678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1000004307685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1000004307692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1000004307708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1000004307715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>1000004307722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>1000004307739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
